--- a/biology/Botanique/Orchis_miel/Orchis_miel.xlsx
+++ b/biology/Botanique/Orchis_miel/Orchis_miel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudorchis albida, l'orchis miel ou pseudorchis blanc ou blanchâtre  est une espèce de plante herbacée des prairies de montagne. Elle appartient à la famille des Orchidacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bicchia albida (L.) Parl.
 Gymnadenia albida (L.) Beck
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orchis miel est une orchidée atteignant 10 à 40 cm, à feuilles carénées, oblongues, luisantes, sans tâches.
 Fleurs crème, odorantes avec un court éperon.
@@ -578,7 +594,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De mai à août selon l'altitude.
 </t>
@@ -609,9 +627,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, on retrouve quasi-exclusivement Pseudorchis albida dans les principaux massifs montagneux: surtout dans les Pyrénées et les Alpes, mais aussi dans les Vosges, le Massif Central et le Jura[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, on retrouve quasi-exclusivement Pseudorchis albida dans les principaux massifs montagneux: surtout dans les Pyrénées et les Alpes, mais aussi dans les Vosges, le Massif Central et le Jura. 
 </t>
         </is>
       </c>
